--- a/Documents/Access-Modifiers.xlsx
+++ b/Documents/Access-Modifiers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\om\Desktop\Dot-Net-Core\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\svdsk31\Desktop\dot-net-oct-2023-se\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5E5E876-ABA1-4810-84CF-F34336527C1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB850A67-B54A-4FD0-AD8D-0486F632DB9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{B617FE1B-8BBA-4A4A-BE57-6E9461AAC6BE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B617FE1B-8BBA-4A4A-BE57-6E9461AAC6BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="14">
   <si>
     <t xml:space="preserve">Public </t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>Dervied Types in Current Assembly</t>
+  </si>
+  <si>
+    <t>Scopes</t>
   </si>
 </sst>
 </file>
@@ -93,7 +96,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -101,13 +104,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -425,132 +444,142 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.90625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
